--- a/loaded_influencer_data/kennphl/kennphl.xlsx
+++ b/loaded_influencer_data/kennphl/kennphl.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
         <v>45745</v>
       </c>
       <c r="B2" t="n">
-        <v>562300</v>
+        <v>562700</v>
       </c>
       <c r="C2" t="n">
         <v>31000</v>
@@ -475,15 +475,29 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B3" t="n">
-        <v>562700</v>
+        <v>565900</v>
       </c>
       <c r="C3" t="n">
-        <v>31000</v>
+        <v>31100</v>
       </c>
       <c r="D3" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B4" t="n">
+        <v>565900</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31100</v>
+      </c>
+      <c r="D4" t="n">
         <v>289</v>
       </c>
     </row>
